--- a/translation/xlsx/_tsum_tips_014.xlsx
+++ b/translation/xlsx/_tsum_tips_014.xlsx
@@ -1875,7 +1875,7 @@
     <t>\"When she held the school hostage, Reina Ryuugu told local police that the alien was controlling the Three Families, and that it was plotting bioterrorism on a massive scale.</t>
   </si>
   <si>
-    <t xml:space="preserve">\"류구 레이나는 학교를 점거했을 때, 경찰에 외계인에게 지배를 받는 3대 가문이 세균 테러를 저지르려 한다고 호소했다. </t>
+    <t xml:space="preserve">\"류구 레이나는 학교를 점거했을 때, 경찰에게 외계인의 지배를 받는 3대 가문이 세균 테러를 저지르려 한다고 호소했다. </t>
   </si>
   <si>
     <t>류구레나는 학교 점거 때부터 경찰에 외계인 지배를 당한 세 가족이 세균테러를 저지르려 한다고 호소하고 있었다.</t>
@@ -3087,7 +3087,7 @@
     <t>the words \"mind control\" came into the spotlight.</t>
   </si>
   <si>
-    <t xml:space="preserve">모 컬트 집단의 사린 사건(* 옴진리교 사린가스 테러 사건) 이후, 세간에 \"마인드 컨트롤\"이라는 말이 유행했다. </t>
+    <t xml:space="preserve">모 컬트 집단의 사린가스 사건(* 옴진리교 사린가스 테러 사건) 이후, 세간에 \"마인드 컨트롤\"이라는 말이 유행했다. </t>
   </si>
   <si>
     <t>그 모 사린 사건의 컬트 집단 이후, 세상에 유행한 말 중에 "마인드 컨트롤"이라고 하는 것이 있다.</t>
